--- a/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -508,31 +508,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,79 +540,79 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45502</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45516</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -620,9 +620,177 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>20</v>
       </c>
     </row>
@@ -637,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,15 +827,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>540</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -675,15 +843,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>100</v>
@@ -691,33 +859,97 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>80</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -821,7 +822,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -951,6 +952,761 @@
       </c>
       <c r="B17" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-28.69804812503251</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.48708512933696</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-27.37461735754702</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.18094887475286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-28.92963101117558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.35400167689906</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-23.8414799834698</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.53113382079488</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-23.42589090152743</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.65191501211004</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.67330435611733</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88.9888547849998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-26.5660967907991</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.12320653476678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-25.67632783070826</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88.13746332910591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-24.97179648945499</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88.15576620328223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-29.98334151946988</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.30658744717998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-24.6673367056483</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93.49758403100985</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-23.71679524715764</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89.09743655585682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-23.78301863047033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90.05036396650544</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.52922017532621</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94.50222873612206</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-29.85887421618303</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90.82583334650619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.14736684725549</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90.64049977222193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-22.39333600982707</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.21921187507151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.74131139532692</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91.10732838038103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-25.87159464078011</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91.24079465194369</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-17.1422285207925</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.65185881072097</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-22.05269661479415</v>
+      </c>
+      <c r="D22" t="n">
+        <v>91.2401076245325</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-21.86130228104754</v>
+      </c>
+      <c r="D23" t="n">
+        <v>96.59209267325055</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-22.48072973505495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>95.21660460275989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>36</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-18.95257634338222</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97.00834512599715</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-19.50085730519889</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95.83698369016508</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.61283525798664</v>
+      </c>
+      <c r="D27" t="n">
+        <v>93.83399242130008</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>37</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-20.94083941740336</v>
+      </c>
+      <c r="D28" t="n">
+        <v>97.87929102200447</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>38</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-17.87222012493175</v>
+      </c>
+      <c r="D29" t="n">
+        <v>101.0021156611109</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>38</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-20.58330851972489</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100.033821536561</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>38</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-20.68896095762401</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96.46891663273735</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>38</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.3162474958668</v>
+      </c>
+      <c r="D32" t="n">
+        <v>95.32477243268411</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>39</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-19.5336826016801</v>
+      </c>
+      <c r="D33" t="n">
+        <v>94.51564494216981</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>39</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-18.67295684265401</v>
+      </c>
+      <c r="D34" t="n">
+        <v>98.35827833071785</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>39</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-20.70285394614969</v>
+      </c>
+      <c r="D35" t="n">
+        <v>97.8573970913896</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>39</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-21.89367816577182</v>
+      </c>
+      <c r="D36" t="n">
+        <v>96.16341379293951</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-16.5215755146254</v>
+      </c>
+      <c r="D37" t="n">
+        <v>99.04092425055997</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-22.652808968747</v>
+      </c>
+      <c r="D38" t="n">
+        <v>100.1773767591033</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-18.82176294772192</v>
+      </c>
+      <c r="D39" t="n">
+        <v>103.2376352662957</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-18.13678569054331</v>
+      </c>
+      <c r="D40" t="n">
+        <v>97.97803559379845</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-19.81686385775336</v>
+      </c>
+      <c r="D41" t="n">
+        <v>96.47100310555579</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-17.42952512100729</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94.93437580397764</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-18.91041065155362</v>
+      </c>
+      <c r="D43" t="n">
+        <v>95.5323792372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-18.29625800176168</v>
+      </c>
+      <c r="D44" t="n">
+        <v>99.03789232514532</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-21.74185025410653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>98.97331952887018</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-17.63222850196815</v>
+      </c>
+      <c r="D46" t="n">
+        <v>96.04121145712679</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-18.37968795595319</v>
+      </c>
+      <c r="D47" t="n">
+        <v>96.2299109753081</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-18.65795625599603</v>
+      </c>
+      <c r="D48" t="n">
+        <v>98.56006602444221</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-17.98444314072713</v>
+      </c>
+      <c r="D49" t="n">
+        <v>93.91294888874583</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>41</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-15.2430893725137</v>
+      </c>
+      <c r="D50" t="n">
+        <v>104.5736850519081</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>41</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-19.02389356438165</v>
+      </c>
+      <c r="D51" t="n">
+        <v>100.3984542671511</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>41</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-14.39943942251821</v>
+      </c>
+      <c r="D52" t="n">
+        <v>101.4809700536036</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZQ43XXL_po_data.xlsx
@@ -965,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,16 +984,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1002,12 +992,6 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="n">
-        <v>-28.69804812503251</v>
-      </c>
-      <c r="D2" t="n">
-        <v>89.48708512933696</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1016,12 +1000,6 @@
       <c r="B3" t="n">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>-27.37461735754702</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92.18094887475286</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1030,12 +1008,6 @@
       <c r="B4" t="n">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
-        <v>-28.92963101117558</v>
-      </c>
-      <c r="D4" t="n">
-        <v>94.35400167689906</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1044,12 +1016,6 @@
       <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>-23.8414799834698</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92.53113382079488</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1058,12 +1024,6 @@
       <c r="B6" t="n">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
-        <v>-23.42589090152743</v>
-      </c>
-      <c r="D6" t="n">
-        <v>89.65191501211004</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1072,12 +1032,6 @@
       <c r="B7" t="n">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
-        <v>-26.67330435611733</v>
-      </c>
-      <c r="D7" t="n">
-        <v>88.9888547849998</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1086,12 +1040,6 @@
       <c r="B8" t="n">
         <v>32</v>
       </c>
-      <c r="C8" t="n">
-        <v>-26.5660967907991</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90.12320653476678</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1100,12 +1048,6 @@
       <c r="B9" t="n">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
-        <v>-25.67632783070826</v>
-      </c>
-      <c r="D9" t="n">
-        <v>88.13746332910591</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1114,12 +1056,6 @@
       <c r="B10" t="n">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>-24.97179648945499</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88.15576620328223</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,12 +1064,6 @@
       <c r="B11" t="n">
         <v>33</v>
       </c>
-      <c r="C11" t="n">
-        <v>-29.98334151946988</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.30658744717998</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1142,12 +1072,6 @@
       <c r="B12" t="n">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
-        <v>-24.6673367056483</v>
-      </c>
-      <c r="D12" t="n">
-        <v>93.49758403100985</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1156,12 +1080,6 @@
       <c r="B13" t="n">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
-        <v>-23.71679524715764</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89.09743655585682</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1170,12 +1088,6 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
-        <v>-23.78301863047033</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90.05036396650544</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1184,12 +1096,6 @@
       <c r="B15" t="n">
         <v>34</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.52922017532621</v>
-      </c>
-      <c r="D15" t="n">
-        <v>94.50222873612206</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1198,12 +1104,6 @@
       <c r="B16" t="n">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
-        <v>-29.85887421618303</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90.82583334650619</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1212,12 +1112,6 @@
       <c r="B17" t="n">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.14736684725549</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90.64049977222193</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1226,12 +1120,6 @@
       <c r="B18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>-22.39333600982707</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91.21921187507151</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1240,12 +1128,6 @@
       <c r="B19" t="n">
         <v>35</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.74131139532692</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91.10732838038103</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1254,12 +1136,6 @@
       <c r="B20" t="n">
         <v>35</v>
       </c>
-      <c r="C20" t="n">
-        <v>-25.87159464078011</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91.24079465194369</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1268,12 +1144,6 @@
       <c r="B21" t="n">
         <v>35</v>
       </c>
-      <c r="C21" t="n">
-        <v>-17.1422285207925</v>
-      </c>
-      <c r="D21" t="n">
-        <v>96.65185881072097</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1282,12 +1152,6 @@
       <c r="B22" t="n">
         <v>36</v>
       </c>
-      <c r="C22" t="n">
-        <v>-22.05269661479415</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91.2401076245325</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1296,12 +1160,6 @@
       <c r="B23" t="n">
         <v>36</v>
       </c>
-      <c r="C23" t="n">
-        <v>-21.86130228104754</v>
-      </c>
-      <c r="D23" t="n">
-        <v>96.59209267325055</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1310,12 +1168,6 @@
       <c r="B24" t="n">
         <v>36</v>
       </c>
-      <c r="C24" t="n">
-        <v>-22.48072973505495</v>
-      </c>
-      <c r="D24" t="n">
-        <v>95.21660460275989</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1324,12 +1176,6 @@
       <c r="B25" t="n">
         <v>36</v>
       </c>
-      <c r="C25" t="n">
-        <v>-18.95257634338222</v>
-      </c>
-      <c r="D25" t="n">
-        <v>97.00834512599715</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1338,12 +1184,6 @@
       <c r="B26" t="n">
         <v>37</v>
       </c>
-      <c r="C26" t="n">
-        <v>-19.50085730519889</v>
-      </c>
-      <c r="D26" t="n">
-        <v>95.83698369016508</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1352,12 +1192,6 @@
       <c r="B27" t="n">
         <v>37</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.61283525798664</v>
-      </c>
-      <c r="D27" t="n">
-        <v>93.83399242130008</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1366,12 +1200,6 @@
       <c r="B28" t="n">
         <v>37</v>
       </c>
-      <c r="C28" t="n">
-        <v>-20.94083941740336</v>
-      </c>
-      <c r="D28" t="n">
-        <v>97.87929102200447</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1380,12 +1208,6 @@
       <c r="B29" t="n">
         <v>38</v>
       </c>
-      <c r="C29" t="n">
-        <v>-17.87222012493175</v>
-      </c>
-      <c r="D29" t="n">
-        <v>101.0021156611109</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1394,12 +1216,6 @@
       <c r="B30" t="n">
         <v>38</v>
       </c>
-      <c r="C30" t="n">
-        <v>-20.58330851972489</v>
-      </c>
-      <c r="D30" t="n">
-        <v>100.033821536561</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1408,12 +1224,6 @@
       <c r="B31" t="n">
         <v>38</v>
       </c>
-      <c r="C31" t="n">
-        <v>-20.68896095762401</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96.46891663273735</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1422,12 +1232,6 @@
       <c r="B32" t="n">
         <v>38</v>
       </c>
-      <c r="C32" t="n">
-        <v>-19.3162474958668</v>
-      </c>
-      <c r="D32" t="n">
-        <v>95.32477243268411</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1436,12 +1240,6 @@
       <c r="B33" t="n">
         <v>39</v>
       </c>
-      <c r="C33" t="n">
-        <v>-19.5336826016801</v>
-      </c>
-      <c r="D33" t="n">
-        <v>94.51564494216981</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1450,12 +1248,6 @@
       <c r="B34" t="n">
         <v>39</v>
       </c>
-      <c r="C34" t="n">
-        <v>-18.67295684265401</v>
-      </c>
-      <c r="D34" t="n">
-        <v>98.35827833071785</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1464,12 +1256,6 @@
       <c r="B35" t="n">
         <v>39</v>
       </c>
-      <c r="C35" t="n">
-        <v>-20.70285394614969</v>
-      </c>
-      <c r="D35" t="n">
-        <v>97.8573970913896</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1478,12 +1264,6 @@
       <c r="B36" t="n">
         <v>39</v>
       </c>
-      <c r="C36" t="n">
-        <v>-21.89367816577182</v>
-      </c>
-      <c r="D36" t="n">
-        <v>96.16341379293951</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1492,12 +1272,6 @@
       <c r="B37" t="n">
         <v>40</v>
       </c>
-      <c r="C37" t="n">
-        <v>-16.5215755146254</v>
-      </c>
-      <c r="D37" t="n">
-        <v>99.04092425055997</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1506,12 +1280,6 @@
       <c r="B38" t="n">
         <v>40</v>
       </c>
-      <c r="C38" t="n">
-        <v>-22.652808968747</v>
-      </c>
-      <c r="D38" t="n">
-        <v>100.1773767591033</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1520,12 +1288,6 @@
       <c r="B39" t="n">
         <v>40</v>
       </c>
-      <c r="C39" t="n">
-        <v>-18.82176294772192</v>
-      </c>
-      <c r="D39" t="n">
-        <v>103.2376352662957</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1534,12 +1296,6 @@
       <c r="B40" t="n">
         <v>40</v>
       </c>
-      <c r="C40" t="n">
-        <v>-18.13678569054331</v>
-      </c>
-      <c r="D40" t="n">
-        <v>97.97803559379845</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1548,12 +1304,6 @@
       <c r="B41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="n">
-        <v>-19.81686385775336</v>
-      </c>
-      <c r="D41" t="n">
-        <v>96.47100310555579</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1562,12 +1312,6 @@
       <c r="B42" t="n">
         <v>40</v>
       </c>
-      <c r="C42" t="n">
-        <v>-17.42952512100729</v>
-      </c>
-      <c r="D42" t="n">
-        <v>94.93437580397764</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1576,12 +1320,6 @@
       <c r="B43" t="n">
         <v>40</v>
       </c>
-      <c r="C43" t="n">
-        <v>-18.91041065155362</v>
-      </c>
-      <c r="D43" t="n">
-        <v>95.5323792372</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1590,12 +1328,6 @@
       <c r="B44" t="n">
         <v>40</v>
       </c>
-      <c r="C44" t="n">
-        <v>-18.29625800176168</v>
-      </c>
-      <c r="D44" t="n">
-        <v>99.03789232514532</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1604,12 +1336,6 @@
       <c r="B45" t="n">
         <v>40</v>
       </c>
-      <c r="C45" t="n">
-        <v>-21.74185025410653</v>
-      </c>
-      <c r="D45" t="n">
-        <v>98.97331952887018</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1618,12 +1344,6 @@
       <c r="B46" t="n">
         <v>41</v>
       </c>
-      <c r="C46" t="n">
-        <v>-17.63222850196815</v>
-      </c>
-      <c r="D46" t="n">
-        <v>96.04121145712679</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1632,12 +1352,6 @@
       <c r="B47" t="n">
         <v>41</v>
       </c>
-      <c r="C47" t="n">
-        <v>-18.37968795595319</v>
-      </c>
-      <c r="D47" t="n">
-        <v>96.2299109753081</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1646,12 +1360,6 @@
       <c r="B48" t="n">
         <v>41</v>
       </c>
-      <c r="C48" t="n">
-        <v>-18.65795625599603</v>
-      </c>
-      <c r="D48" t="n">
-        <v>98.56006602444221</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1660,12 +1368,6 @@
       <c r="B49" t="n">
         <v>41</v>
       </c>
-      <c r="C49" t="n">
-        <v>-17.98444314072713</v>
-      </c>
-      <c r="D49" t="n">
-        <v>93.91294888874583</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1674,12 +1376,6 @@
       <c r="B50" t="n">
         <v>41</v>
       </c>
-      <c r="C50" t="n">
-        <v>-15.2430893725137</v>
-      </c>
-      <c r="D50" t="n">
-        <v>104.5736850519081</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1688,12 +1384,6 @@
       <c r="B51" t="n">
         <v>41</v>
       </c>
-      <c r="C51" t="n">
-        <v>-19.02389356438165</v>
-      </c>
-      <c r="D51" t="n">
-        <v>100.3984542671511</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1701,12 +1391,6 @@
       </c>
       <c r="B52" t="n">
         <v>41</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-14.39943942251821</v>
-      </c>
-      <c r="D52" t="n">
-        <v>101.4809700536036</v>
       </c>
     </row>
   </sheetData>
